--- a/docs/datasets/Modified_Summary_CSYChow_FINAL.xlsx
+++ b/docs/datasets/Modified_Summary_CSYChow_FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wohcz\Documents\GitHub Repositories\palpantlab_hiPSC_database\docs\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2E793A-015A-486B-B80B-EE18BF501DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D9D3D-989B-4320-BA9A-289203FC1056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25440" windowHeight="15257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25440" windowHeight="15257" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -22745,12 +22745,6 @@
     <t>Chen's new columns</t>
   </si>
   <si>
-    <t>Nick's new studies missing from 314 dataset</t>
-  </si>
-  <si>
-    <t>Nick's new studies vs 300 studies</t>
-  </si>
-  <si>
     <t>Unchanged</t>
   </si>
   <si>
@@ -22764,6 +22758,12 @@
   </si>
   <si>
     <t>Data not in previous version</t>
+  </si>
+  <si>
+    <t>Amended New Studies</t>
+  </si>
+  <si>
+    <t>New Metabolic Maturation and Ischemia Disease Modeling</t>
   </si>
 </sst>
 </file>
@@ -23139,6 +23139,19 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            </a:rPr>
+            <a:t>https://doi.org/10.1101/2024.09.04.611313</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -26285,7 +26298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75009432-8FD7-4057-86E5-1635081843DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
@@ -26304,8 +26317,8 @@
   </sheetPr>
   <dimension ref="A1:BS497"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.3828125" defaultRowHeight="12.45"/>
@@ -26380,7 +26393,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>9</v>
@@ -26565,7 +26578,7 @@
     </row>
     <row r="2" spans="1:71" ht="49.75">
       <c r="A2" s="10" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>69</v>
@@ -26700,7 +26713,7 @@
     </row>
     <row r="3" spans="1:71" ht="38.6">
       <c r="A3" s="12" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>88</v>
@@ -26851,7 +26864,7 @@
     </row>
     <row r="4" spans="1:71" ht="38.15">
       <c r="A4" s="19" t="s">
-        <v>2327</v>
+        <v>2332</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>103</v>
@@ -26994,7 +27007,7 @@
     </row>
     <row r="5" spans="1:71" ht="37.75">
       <c r="A5" s="22" t="s">
-        <v>2326</v>
+        <v>2331</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>125</v>
@@ -27135,7 +27148,7 @@
     </row>
     <row r="6" spans="1:71" ht="38.15">
       <c r="A6" s="3" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>137</v>
@@ -65278,7 +65291,7 @@
         <v>7</v>
       </c>
       <c r="J298" s="11" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="K298" s="11" t="s">
         <v>2173</v>
@@ -80590,6 +80603,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C423E9A05C20DF4A8483C65DCB6D5AF8" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb65f564ba6bf79e0d54b2f4085c3956">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="035f0145-80d8-4349-abc4-6dd00988a054" xmlns:ns3="c7e5f0c7-8a19-4fe8-a3c4-cc9dda216a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3360bd551567e1ad9f88834c2d066eb" ns2:_="" ns3:_="">
     <xsd:import namespace="035f0145-80d8-4349-abc4-6dd00988a054"/>
@@ -80800,15 +80822,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -80820,6 +80833,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0AF300E-66C3-45D2-9F88-1A9604B7AEE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC374C21-015C-48A7-A754-2319C48D757F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -80834,14 +80855,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0AF300E-66C3-45D2-9F88-1A9604B7AEE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
